--- a/Project1/doc/Tests.xlsx
+++ b/Project1/doc/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FEUP\3_ano\RCOM\Project1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4AC34E-9AF8-456A-9056-C44B1890B0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E4023-39A5-46CD-A60C-426911894E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB5690F5-D6C8-42FE-A177-DFA409EF9C02}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Nº total de bytes</t>
   </si>
@@ -81,37 +81,26 @@
     <t>10+10</t>
   </si>
   <si>
-    <r>
-      <t>Atraso Introduzido (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s)</t>
-    </r>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Atraso Introduzido (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -204,21 +186,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -238,21 +205,6 @@
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -404,59 +356,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +572,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$A$9,Sheet1!$A$11,Sheet1!$A$13,Sheet1!$A$15,Sheet1!$A$17,Sheet1!$A$19,Sheet1!$A$21,Sheet1!$A$23,Sheet1!$A$25,Sheet1!$A$27)</c:f>
+              <c:f>(Sheet1!$B$9,Sheet1!$B$11,Sheet1!$B$13,Sheet1!$B$15,Sheet1!$B$17,Sheet1!$B$19,Sheet1!$B$21,Sheet1!$B$23,Sheet1!$B$25,Sheet1!$B$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -617,7 +611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$E$9,Sheet1!$E$11,Sheet1!$E$13,Sheet1!$E$15,Sheet1!$E$17,Sheet1!$E$19,Sheet1!$E$21,Sheet1!$E$23,Sheet1!$E$25,Sheet1!$E$27)</c:f>
+              <c:f>(Sheet1!$F$9,Sheet1!$F$11,Sheet1!$F$13,Sheet1!$F$15,Sheet1!$F$17,Sheet1!$F$19,Sheet1!$F$21,Sheet1!$F$23,Sheet1!$F$25,Sheet1!$F$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -662,7 +656,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1076,11 +1069,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$44:$A$55</c15:sqref>
+                    <c15:sqref>Sheet1!$B$44:$B$55</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$44,Sheet1!$A$46,Sheet1!$A$48,Sheet1!$A$50,Sheet1!$A$52,Sheet1!$A$54)</c:f>
+              <c:f>(Sheet1!$B$44,Sheet1!$B$46,Sheet1!$B$48,Sheet1!$B$50,Sheet1!$B$52,Sheet1!$B$54)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1109,11 +1102,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$44:$E$55</c15:sqref>
+                    <c15:sqref>Sheet1!$F$44:$F$55</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$E$44,Sheet1!$E$46,Sheet1!$E$48,Sheet1!$E$50,Sheet1!$E$52,Sheet1!$E$54)</c:f>
+              <c:f>(Sheet1!$F$44,Sheet1!$F$46,Sheet1!$F$48,Sheet1!$F$50,Sheet1!$F$52,Sheet1!$F$54)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1543,7 +1536,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$A$69,Sheet1!$A$71,Sheet1!$A$73,Sheet1!$A$75,Sheet1!$A$77,Sheet1!$A$79,Sheet1!$A$81,Sheet1!$A$83)</c:f>
+              <c:f>(Sheet1!$B$69,Sheet1!$B$71,Sheet1!$B$73,Sheet1!$B$75,Sheet1!$B$77,Sheet1!$B$79,Sheet1!$B$81,Sheet1!$B$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1576,7 +1569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$69,Sheet1!$E$71,Sheet1!$E$73,Sheet1!$E$75,Sheet1!$E$77,Sheet1!$E$79,Sheet1!$E$81,Sheet1!$E$83)</c:f>
+              <c:f>(Sheet1!$F$69,Sheet1!$F$71,Sheet1!$F$73,Sheet1!$F$75,Sheet1!$F$77,Sheet1!$F$79,Sheet1!$F$81,Sheet1!$F$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2040,7 +2033,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$A$99,Sheet1!$A$101,Sheet1!$A$103,Sheet1!$A$105,Sheet1!$A$107,Sheet1!$A$109,Sheet1!$A$111,Sheet1!$A$113)</c:f>
+              <c:f>(Sheet1!$B$99,Sheet1!$B$101,Sheet1!$B$103,Sheet1!$B$105,Sheet1!$B$107,Sheet1!$B$109,Sheet1!$B$111,Sheet1!$B$113)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2066,14 +2059,14 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$E$99,Sheet1!$E$101,Sheet1!$E$103,Sheet1!$E$105,Sheet1!$E$107,Sheet1!$E$109,Sheet1!$E$111,Sheet1!$E$113)</c:f>
+              <c:f>(Sheet1!$F$99,Sheet1!$F$101,Sheet1!$F$103,Sheet1!$F$105,Sheet1!$F$107,Sheet1!$F$109,Sheet1!$F$111,Sheet1!$F$113)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2081,25 +2074,25 @@
                   <c:v>0.3573847166059253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34634434179682838</c:v>
+                  <c:v>0.29692397523332326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31781980863603077</c:v>
+                  <c:v>0.27701521711139659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31638361269617465</c:v>
+                  <c:v>0.25909751372533563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31678393473922584</c:v>
+                  <c:v>0.2260328299005232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30806494227559822</c:v>
+                  <c:v>0.17900543102088839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18217087319165165</c:v>
+                  <c:v>0.13309211267011312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0726090943291983E-2</c:v>
+                  <c:v>8.544501166671091E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,7 +2154,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Atraso Introduzido (µs)</a:t>
+                  <a:t>Atraso Introduzido (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2397,6 +2390,531 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Variação da Capacidade da Ligação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$69,Sheet1!$B$69,Sheet1!$B$71,Sheet1!$B$71,Sheet1!$B$73,Sheet1!$B$73,Sheet1!$B$75,Sheet1!$B$75,Sheet1!$B$77,Sheet1!$B$77,Sheet1!$B$79,Sheet1!$B$79,Sheet1!$B$81,Sheet1!$B$81,Sheet1!$B$83,Sheet1!$B$83)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>165.213134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.725582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.080252000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.081885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.889786000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.332295999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.110892999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.306482000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.675293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.167259999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.828682000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.597075999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3390210000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7965149999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0740370000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1259899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D424-4D1D-82BF-AF32FF5E5FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="584033088"/>
+        <c:axId val="584034728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="584033088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> da Ligação (Baudrate)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584034728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584034728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.38499234470691163"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584033088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2557,6 +3075,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -3995,6 +4553,485 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4620,6 +5657,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>499783</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>194983</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E83E4F5-B2B9-4D1E-99C6-B282D68BEB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4925,1489 +6000,1484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373A8AB-5295-4016-BDBF-A1FC743DD957}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C2" s="2">
         <v>10968</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <f>8*B1</f>
+      <c r="C3" s="2">
+        <f>8*C2</f>
         <v>87744</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="3">
         <v>38400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
         <v>32</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>12.969315999999999</v>
       </c>
-      <c r="C9" s="4">
-        <f>87744/B9</f>
+      <c r="D9" s="4">
+        <f>87744/C9</f>
         <v>6765.5071400835641</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" ref="D9:D16" si="0">C9/38400</f>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E16" si="0">D9/38400</f>
         <v>0.17618508177300948</v>
       </c>
-      <c r="E9" s="6">
-        <f t="shared" ref="E9" si="1">(D9+D10) / 2</f>
+      <c r="F9" s="25">
+        <f t="shared" ref="F9" si="1">(E9+E10) / 2</f>
         <v>0.17448735087614947</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="4">
         <v>13.224174</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" ref="C10:C16" si="2">87744/B10</f>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D16" si="2">87744/C10</f>
         <v>6635.1214072047151</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0.17278961997928946</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23">
         <v>64</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>9.9551890000000007</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <f t="shared" si="2"/>
         <v>8813.8959491376809</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>0.22952854034212711</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11" si="3">(D11+D12) / 2</f>
+      <c r="F11" s="25">
+        <f t="shared" ref="F11" si="3">(E11+E12) / 2</f>
         <v>0.22976460133175458</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="4">
         <v>9.9347539999999999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>8832.0254331410724</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>0.23000066232138208</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="23">
         <v>128</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>8.5502389999999995</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>10262.169279712532</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>0.26724399165918056</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13" si="4">(D13+D14) / 2</f>
+      <c r="F13" s="25">
+        <f t="shared" ref="F13" si="4">(E13+E14) / 2</f>
         <v>0.26898557351323693</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="4">
         <v>8.440232</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>10395.92276610406</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>0.27072715536729325</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <f>64 + A13</f>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="23">
+        <f>64 + B13</f>
         <v>192</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>8.1098800000000004</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <f t="shared" si="2"/>
         <v>10819.39560141457</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0.28175509378683777</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" ref="E15" si="5">(D15+D16) / 2</f>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15" si="5">(E15+E16) / 2</f>
         <v>0.27822481042500952</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="4">
         <v>8.3183310000000006</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <f t="shared" si="2"/>
         <v>10548.269839226161</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>0.27469452706318126</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <f>64 + A15</f>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="23">
+        <f>64 + B15</f>
         <v>256</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>7.5200319999999996</v>
       </c>
-      <c r="C17" s="4">
-        <f>87744/B17</f>
+      <c r="D17" s="4">
+        <f>87744/C17</f>
         <v>11668.035455168276</v>
       </c>
-      <c r="D17" s="4">
-        <f>C17/38400</f>
+      <c r="E17" s="4">
+        <f>D17/38400</f>
         <v>0.30385508997834054</v>
       </c>
-      <c r="E17" s="6">
-        <f>(D17+D18) / 2</f>
+      <c r="F17" s="25">
+        <f>(E17+E18) / 2</f>
         <v>0.29930614726727583</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="4">
         <v>7.7521430000000002</v>
       </c>
-      <c r="C18" s="4">
-        <f>87744/B18</f>
+      <c r="D18" s="4">
+        <f>87744/C18</f>
         <v>11318.676654958506</v>
       </c>
-      <c r="D18" s="4">
-        <f>C18/38400</f>
+      <c r="E18" s="4">
+        <f>D18/38400</f>
         <v>0.29475720455621113</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <f t="shared" ref="A19" si="6">64 + A17</f>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="23">
+        <f t="shared" ref="B19" si="6">64 + B17</f>
         <v>320</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>7.6611390000000004</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:C30" si="7">87744/B19</f>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D28" si="7">87744/C19</f>
         <v>11453.127269979046</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19:D30" si="8">C19/38400</f>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:E28" si="8">D19/38400</f>
         <v>0.29825852265570435</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19" si="9">(D19+D20) / 2</f>
+      <c r="F19" s="25">
+        <f t="shared" ref="F19" si="9">(E19+E20) / 2</f>
         <v>0.29464723142795324</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
+      <c r="C20" s="4">
         <v>7.8512639999999996</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <f t="shared" si="7"/>
         <v>11175.780103687763</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="8"/>
         <v>0.29103594020020213</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <f t="shared" ref="A21:A27" si="10">64 + A19</f>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="23">
+        <f t="shared" ref="B21:B25" si="10">64 + B19</f>
         <v>384</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>6.9325919999999996</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <f t="shared" si="7"/>
         <v>12656.737912746055</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="8"/>
         <v>0.32960254981109521</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" ref="E21" si="11">(D21+D22) / 2</f>
+      <c r="F21" s="25">
+        <f t="shared" ref="F21" si="11">(E21+E22) / 2</f>
         <v>0.32688008279995595</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="4">
         <v>7.0490399999999998</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <f t="shared" si="7"/>
         <v>12447.65244629056</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <f t="shared" si="8"/>
         <v>0.32415761578881669</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="23">
         <f t="shared" si="10"/>
         <v>448</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>6.8378699999999997</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <f t="shared" si="7"/>
         <v>12832.066125854983</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <f t="shared" si="8"/>
         <v>0.33416838869414017</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" ref="E23" si="12">(D23+D24) / 2</f>
+      <c r="F23" s="25">
+        <f t="shared" ref="F23" si="12">(E23+E24) / 2</f>
         <v>0.32256836252037946</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
+      <c r="C24" s="4">
         <v>7.3480150000000002</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <f t="shared" si="7"/>
         <v>11941.184115710161</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <f t="shared" si="8"/>
         <v>0.31096833634661875</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
         <f t="shared" si="10"/>
         <v>512</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>7.7000460000000004</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <f t="shared" si="7"/>
         <v>11395.256599765768</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <f t="shared" si="8"/>
         <v>0.2967514739522335</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25:E29" si="13">(D25+D26) / 2</f>
+      <c r="F25" s="25">
+        <f t="shared" ref="F25:F27" si="13">(E25+E26) / 2</f>
         <v>0.29868781379170573</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="4">
         <v>7.6008529999999999</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <f t="shared" si="7"/>
         <v>11543.967499437234</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <f t="shared" si="8"/>
         <v>0.300624153631178</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <f>2* A25</f>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="23">
+        <f>2* B25</f>
         <v>1024</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>7.9730040000000004</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <f t="shared" si="7"/>
         <v>11005.136834247167</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="8"/>
         <v>0.28659210505851995</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="25">
         <f t="shared" si="13"/>
         <v>0.29077637858922079</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="5">
         <v>7.7467959999999998</v>
       </c>
-      <c r="C28" s="8">
+      <c r="D28" s="5">
         <f t="shared" si="7"/>
         <v>11326.48904140499</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="5">
         <f t="shared" si="8"/>
         <v>0.29496065211992162</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>10968</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2">
-        <f>8*B36</f>
+      <c r="C37" s="2">
+        <f>8*C36</f>
         <v>87744</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>38400</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="C43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="F43" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C44" s="4">
         <v>6.9325919999999996</v>
       </c>
-      <c r="C44" s="4">
-        <f>87744/B44</f>
+      <c r="D44" s="4">
+        <f>87744/C44</f>
         <v>12656.737912746055</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" ref="D44:D51" si="14">C44/38400</f>
+      <c r="E44" s="4">
+        <f t="shared" ref="E44:E51" si="14">D44/38400</f>
         <v>0.32960254981109521</v>
       </c>
-      <c r="E44" s="6">
-        <f t="shared" ref="E44" si="15">(D44+D45) / 2</f>
+      <c r="F44" s="25">
+        <f t="shared" ref="F44" si="15">(E44+E45) / 2</f>
         <v>0.32688008279995595</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="23"/>
+      <c r="C45" s="4">
         <v>7.0490399999999998</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" ref="C45:C51" si="16">87744/B45</f>
+      <c r="D45" s="4">
+        <f t="shared" ref="D45:D51" si="16">87744/C45</f>
         <v>12447.65244629056</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <f t="shared" si="14"/>
         <v>0.32415761578881669</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="4">
+      <c r="C46" s="4">
         <v>9.8397649999999999</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <f t="shared" si="16"/>
         <v>8917.2861343741442</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <f t="shared" si="14"/>
         <v>0.23222099308266</v>
       </c>
-      <c r="E46" s="6">
-        <f t="shared" ref="E46" si="17">(D46+D47) / 2</f>
+      <c r="F46" s="25">
+        <f t="shared" ref="F46" si="17">(E46+E47) / 2</f>
         <v>0.2257715436032442</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="23"/>
+      <c r="C47" s="4">
         <v>10.418467</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <f t="shared" si="16"/>
         <v>8421.9684143550112</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <f t="shared" si="14"/>
         <v>0.21932209412382841</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="4">
+      <c r="C48" s="4">
         <v>8.0123180000000005</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <f t="shared" si="16"/>
         <v>10951.137985287154</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <f t="shared" si="14"/>
         <v>0.28518588503351966</v>
       </c>
-      <c r="E48" s="6">
-        <f t="shared" ref="E48" si="18">(D48+D49) / 2</f>
+      <c r="F48" s="25">
+        <f t="shared" ref="F48" si="18">(E48+E49) / 2</f>
         <v>0.22733225620323075</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4">
+      <c r="B49" s="23"/>
+      <c r="C49" s="4">
         <v>13.482526</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <f t="shared" si="16"/>
         <v>6507.9792911209661</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <f t="shared" si="14"/>
         <v>0.16947862737294184</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="4">
+      <c r="C50" s="4">
         <v>16.757625999999998</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <f t="shared" si="16"/>
         <v>5236.0638672804853</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <f t="shared" si="14"/>
         <v>0.13635582987709596</v>
       </c>
-      <c r="E50" s="6">
-        <f t="shared" ref="E50" si="19">(D50+D51) / 2</f>
+      <c r="F50" s="25">
+        <f t="shared" ref="F50" si="19">(E50+E51) / 2</f>
         <v>0.13499741940276344</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4">
+      <c r="B51" s="23"/>
+      <c r="C51" s="4">
         <v>17.098300999999999</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <f t="shared" si="16"/>
         <v>5131.7379428517488</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <f t="shared" si="14"/>
         <v>0.13363900892843095</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="4">
+      <c r="C52" s="4">
         <v>16.837567</v>
       </c>
-      <c r="C52" s="4">
-        <f>87744/B52</f>
+      <c r="D52" s="4">
+        <f>87744/C52</f>
         <v>5211.2042078288387</v>
       </c>
-      <c r="D52" s="4">
-        <f>C52/38400</f>
+      <c r="E52" s="4">
+        <f>D52/38400</f>
         <v>0.13570844291220935</v>
       </c>
-      <c r="E52" s="6">
-        <f>(D52+D53) / 2</f>
+      <c r="F52" s="25">
+        <f>(E52+E53) / 2</f>
         <v>0.15348104200971935</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4">
+      <c r="B53" s="23"/>
+      <c r="C53" s="4">
         <v>13.342782</v>
       </c>
-      <c r="C53" s="4">
-        <f>87744/B53</f>
+      <c r="D53" s="4">
+        <f>87744/C53</f>
         <v>6576.1398185176076</v>
       </c>
-      <c r="D53" s="4">
-        <f>C53/38400</f>
+      <c r="E53" s="4">
+        <f>D53/38400</f>
         <v>0.17125364110722938</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="B54" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="4">
+      <c r="C54" s="4">
         <v>26.054558</v>
       </c>
-      <c r="C54" s="4">
-        <f t="shared" ref="C54:C65" si="20">87744/B54</f>
+      <c r="D54" s="4">
+        <f t="shared" ref="D54:D55" si="20">87744/C54</f>
         <v>3367.702495663139</v>
       </c>
-      <c r="D54" s="4">
-        <f t="shared" ref="D54:D65" si="21">C54/38400</f>
+      <c r="E54" s="4">
+        <f t="shared" ref="E54:E55" si="21">D54/38400</f>
         <v>8.7700585824560917E-2</v>
       </c>
-      <c r="E54" s="6">
-        <f t="shared" ref="E54" si="22">(D54+D55) / 2</f>
+      <c r="F54" s="25">
+        <f t="shared" ref="F54" si="22">(E54+E55) / 2</f>
         <v>0.10385864628516485</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8">
+      <c r="B55" s="24"/>
+      <c r="C55" s="5">
         <v>19.039016</v>
       </c>
-      <c r="C55" s="8">
+      <c r="D55" s="5">
         <f t="shared" si="20"/>
         <v>4608.6415390375214</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E55" s="5">
         <f t="shared" si="21"/>
         <v>0.12001670674576878</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="9"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F57" s="9"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F58" s="9"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F59" s="9"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F60" s="9"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="B61" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="19">
+      <c r="C61" s="15">
         <v>10968</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="B62" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="21">
-        <f>8*B61</f>
+      <c r="C62" s="17">
+        <f>8*C61</f>
         <v>87744</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="B63" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="23">
+      <c r="C63" s="19">
         <v>100</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="F64" s="9"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="F65" s="9"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="9"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="B68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="C68" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="E68" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="F68" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
+      <c r="B69" s="23">
         <v>600</v>
       </c>
-      <c r="B69" s="4">
+      <c r="C69" s="4">
         <v>165.213134</v>
       </c>
-      <c r="C69" s="4">
-        <f>87744/B69</f>
+      <c r="D69" s="4">
+        <f>87744/C69</f>
         <v>531.09579048358228</v>
       </c>
-      <c r="D69" s="4">
-        <f>C69/A69</f>
+      <c r="E69" s="4">
+        <f>D69/B69</f>
         <v>0.88515965080597048</v>
       </c>
-      <c r="E69" s="6">
-        <f t="shared" ref="E69" si="23">(D69+D70) / 2</f>
+      <c r="F69" s="25">
+        <f t="shared" ref="F69" si="23">(E69+E70) / 2</f>
         <v>0.87594623690542117</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4">
+      <c r="B70" s="23"/>
+      <c r="C70" s="4">
         <v>168.725582</v>
       </c>
-      <c r="C70" s="4">
-        <f t="shared" ref="C70:C76" si="24">87744/B70</f>
+      <c r="D70" s="4">
+        <f t="shared" ref="D70:D76" si="24">87744/C70</f>
         <v>520.03969380292313</v>
       </c>
-      <c r="D70" s="4">
-        <f>C70/A69</f>
+      <c r="E70" s="4">
+        <f>D70/B69</f>
         <v>0.86673282300487187</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <f>A69 + 600</f>
+      <c r="B71" s="23">
+        <f>B69 + 600</f>
         <v>1200</v>
       </c>
-      <c r="B71" s="4">
+      <c r="C71" s="4">
         <v>86.080252000000002</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <f t="shared" si="24"/>
         <v>1019.3278709267719</v>
       </c>
-      <c r="D71" s="4">
-        <f>C71/A71</f>
+      <c r="E71" s="4">
+        <f>D71/B71</f>
         <v>0.84943989243897655</v>
       </c>
-      <c r="E71" s="6">
-        <f t="shared" ref="E71" si="25">(D71+D72) / 2</f>
+      <c r="F71" s="25">
+        <f t="shared" ref="F71" si="25">(E71+E72) / 2</f>
         <v>0.85953417522969655</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4">
+      <c r="B72" s="23"/>
+      <c r="C72" s="4">
         <v>84.081885</v>
       </c>
-      <c r="C72" s="4">
+      <c r="D72" s="4">
         <f t="shared" si="24"/>
         <v>1043.5541496245</v>
       </c>
-      <c r="D72" s="4">
-        <f>C72/A71</f>
+      <c r="E72" s="4">
+        <f>D72/B71</f>
         <v>0.86962845802041666</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <f>A71 + 600</f>
+      <c r="B73" s="23">
+        <f>B71 + 600</f>
         <v>1800</v>
       </c>
-      <c r="B73" s="4">
+      <c r="C73" s="4">
         <v>56.889786000000001</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <f t="shared" si="24"/>
         <v>1542.3506778527872</v>
       </c>
-      <c r="D73" s="4">
-        <f t="shared" ref="D73" si="26">C73/A73</f>
+      <c r="E73" s="4">
+        <f t="shared" ref="E73" si="26">D73/B73</f>
         <v>0.85686148769599291</v>
       </c>
-      <c r="E73" s="6">
-        <f t="shared" ref="E73" si="27">(D73+D74) / 2</f>
+      <c r="F73" s="25">
+        <f t="shared" ref="F73" si="27">(E73+E74) / 2</f>
         <v>0.88543963267088399</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4">
+      <c r="B74" s="23"/>
+      <c r="C74" s="4">
         <v>53.332295999999999</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <f t="shared" si="24"/>
         <v>1645.2319997623954</v>
       </c>
-      <c r="D74" s="4">
-        <f t="shared" ref="D74" si="28">C74/A73</f>
+      <c r="E74" s="4">
+        <f t="shared" ref="E74" si="28">D74/B73</f>
         <v>0.91401777764577519</v>
       </c>
-      <c r="E74" s="6"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
-        <f>A73 + 600</f>
+      <c r="B75" s="23">
+        <f>B73 + 600</f>
         <v>2400</v>
       </c>
-      <c r="B75" s="4">
+      <c r="C75" s="4">
         <v>41.110892999999997</v>
       </c>
-      <c r="C75" s="4">
+      <c r="D75" s="4">
         <f t="shared" si="24"/>
         <v>2134.3248369720404</v>
       </c>
-      <c r="D75" s="4">
-        <f t="shared" ref="D75" si="29">C75/A75</f>
+      <c r="E75" s="4">
+        <f t="shared" ref="E75" si="29">D75/B75</f>
         <v>0.88930201540501685</v>
       </c>
-      <c r="E75" s="6">
-        <f t="shared" ref="E75" si="30">(D75+D76) / 2</f>
+      <c r="F75" s="25">
+        <f t="shared" ref="F75" si="30">(E75+E76) / 2</f>
         <v>0.87673609575119094</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="4">
+      <c r="B76" s="23"/>
+      <c r="C76" s="4">
         <v>42.306482000000003</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <f t="shared" si="24"/>
         <v>2074.0084226336758</v>
       </c>
-      <c r="D76" s="4">
-        <f t="shared" ref="D76" si="31">C76/A75</f>
+      <c r="E76" s="4">
+        <f t="shared" ref="E76" si="31">D76/B75</f>
         <v>0.86417017609736491</v>
       </c>
-      <c r="E76" s="6"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
-        <f>A75*2</f>
+      <c r="B77" s="23">
+        <f>B75*2</f>
         <v>4800</v>
       </c>
-      <c r="B77" s="4">
+      <c r="C77" s="4">
         <v>25.675293</v>
       </c>
-      <c r="C77" s="4">
-        <f>87744/B77</f>
+      <c r="D77" s="4">
+        <f>87744/C77</f>
         <v>3417.448829113654</v>
       </c>
-      <c r="D77" s="4">
-        <f t="shared" ref="D77" si="32">C77/A77</f>
+      <c r="E77" s="4">
+        <f t="shared" ref="E77" si="32">D77/B77</f>
         <v>0.71196850606534456</v>
       </c>
-      <c r="E77" s="6">
-        <f>(D77+D78) / 2</f>
+      <c r="F77" s="25">
+        <f>(E77+E78) / 2</f>
         <v>0.73418186418097786</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4">
+      <c r="B78" s="23"/>
+      <c r="C78" s="4">
         <v>24.167259999999999</v>
       </c>
-      <c r="C78" s="4">
-        <f>87744/B78</f>
+      <c r="D78" s="4">
+        <f>87744/C78</f>
         <v>3630.6970670237338</v>
       </c>
-      <c r="D78" s="4">
-        <f t="shared" ref="D78" si="33">C78/A77</f>
+      <c r="E78" s="4">
+        <f t="shared" ref="E78" si="33">D78/B77</f>
         <v>0.75639522229661116</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
-        <f>A77*2</f>
+      <c r="B79" s="23">
+        <f>B77*2</f>
         <v>9600</v>
       </c>
-      <c r="B79" s="4">
+      <c r="C79" s="4">
         <v>15.828682000000001</v>
       </c>
-      <c r="C79" s="4">
-        <f t="shared" ref="C79:C84" si="34">87744/B79</f>
+      <c r="D79" s="4">
+        <f t="shared" ref="D79:D84" si="34">87744/C79</f>
         <v>5543.3547783700496</v>
       </c>
-      <c r="D79" s="4">
-        <f t="shared" ref="D79" si="35">C79/A79</f>
+      <c r="E79" s="4">
+        <f t="shared" ref="E79" si="35">D79/B79</f>
         <v>0.57743278941354681</v>
       </c>
-      <c r="E79" s="6">
-        <f t="shared" ref="E79" si="36">(D79+D80) / 2</f>
+      <c r="F79" s="25">
+        <f t="shared" ref="F79" si="36">(E79+E80) / 2</f>
         <v>0.58172003205520972</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="4">
+      <c r="B80" s="23"/>
+      <c r="C80" s="4">
         <v>15.597075999999999</v>
       </c>
-      <c r="C80" s="4">
+      <c r="D80" s="4">
         <f t="shared" si="34"/>
         <v>5625.6698370899776</v>
       </c>
-      <c r="D80" s="4">
-        <f t="shared" ref="D80" si="37">C80/A79</f>
+      <c r="E80" s="4">
+        <f t="shared" ref="E80" si="37">D80/B79</f>
         <v>0.58600727469687264</v>
       </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <f>A79*2</f>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="23">
+        <f>B79*2</f>
         <v>19200</v>
       </c>
-      <c r="B81" s="4">
+      <c r="C81" s="4">
         <v>9.3390210000000007</v>
       </c>
-      <c r="C81" s="4">
+      <c r="D81" s="4">
         <f t="shared" si="34"/>
         <v>9395.4173569156756</v>
       </c>
-      <c r="D81" s="4">
-        <f t="shared" ref="D81" si="38">C81/A81</f>
+      <c r="E81" s="4">
+        <f t="shared" ref="E81" si="38">D81/B81</f>
         <v>0.48934465400602478</v>
       </c>
-      <c r="E81" s="6">
-        <f t="shared" ref="E81" si="39">(D81+D82) / 2</f>
+      <c r="F81" s="25">
+        <f t="shared" ref="F81" si="39">(E81+E82) / 2</f>
         <v>0.50443428955295411</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="23"/>
+      <c r="C82" s="4">
         <v>8.7965149999999994</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <f t="shared" si="34"/>
         <v>9974.8593619177609</v>
       </c>
-      <c r="D82" s="4">
-        <f t="shared" ref="D82" si="40">C82/A81</f>
+      <c r="E82" s="4">
+        <f t="shared" ref="E82" si="40">D82/B81</f>
         <v>0.51952392509988343</v>
       </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <f>A81*2</f>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="23">
+        <f>B81*2</f>
         <v>38400</v>
       </c>
-      <c r="B83" s="4">
+      <c r="C83" s="4">
         <v>8.0740370000000006</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <f t="shared" si="34"/>
         <v>10867.426047217767</v>
       </c>
-      <c r="D83" s="4">
-        <f t="shared" ref="D83" si="41">C83/A83</f>
+      <c r="E83" s="4">
+        <f t="shared" ref="E83" si="41">D83/B83</f>
         <v>0.283005886646296</v>
       </c>
-      <c r="E83" s="6">
-        <f t="shared" ref="E83" si="42">(D83+D84) / 2</f>
+      <c r="F83" s="25">
+        <f t="shared" ref="F83" si="42">(E83+E84) / 2</f>
         <v>0.2821011965821355</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="24"/>
+      <c r="C84" s="5">
         <v>8.1259899999999998</v>
       </c>
-      <c r="C84" s="8">
+      <c r="D84" s="5">
         <f t="shared" si="34"/>
         <v>10797.945850290242</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" ref="D84" si="43">C84/A83</f>
+      <c r="E84" s="5">
+        <f t="shared" ref="E84" si="43">D84/B83</f>
         <v>0.28119650651797506</v>
       </c>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="F84" s="27"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="2">
+      <c r="C91" s="2">
         <v>10968</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="2">
-        <f>8*B91</f>
+      <c r="C92" s="2">
+        <f>8*C91</f>
         <v>87744</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="3">
+      <c r="C93" s="3">
         <v>38400</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="3">
+      <c r="C94" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="14" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="D98" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="E98" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="F98" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="23">
         <v>0</v>
       </c>
-      <c r="B99" s="4">
+      <c r="C99" s="4">
         <v>6.3836240000000002</v>
       </c>
-      <c r="C99" s="4">
-        <f>87744/B99</f>
+      <c r="D99" s="4">
+        <f>87744/C99</f>
         <v>13745.170454901479</v>
       </c>
-      <c r="D99" s="4">
-        <f>C99/38400</f>
+      <c r="E99" s="4">
+        <f>D99/38400</f>
         <v>0.35794714726305937</v>
       </c>
-      <c r="E99" s="6">
-        <f t="shared" ref="E99" si="44">(D99+D100) / 2</f>
+      <c r="F99" s="25">
+        <f t="shared" ref="F99" si="44">(E99+E100) / 2</f>
         <v>0.3573847166059253</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="23"/>
+      <c r="C100" s="4">
         <v>6.4037480000000002</v>
       </c>
-      <c r="C100" s="4">
-        <f t="shared" ref="C100:C106" si="45">87744/B100</f>
+      <c r="D100" s="4">
+        <f t="shared" ref="D100:D106" si="45">87744/C100</f>
         <v>13701.975780433582</v>
       </c>
-      <c r="D100" s="4">
-        <f t="shared" ref="D100:D114" si="46">C100/38400</f>
+      <c r="E100" s="4">
+        <f t="shared" ref="E100:E114" si="46">D100/38400</f>
         <v>0.35682228594879123</v>
       </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="F100" s="26"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="23">
         <v>10</v>
       </c>
-      <c r="B101" s="4">
-        <v>6.5878430000000003</v>
-      </c>
       <c r="C101" s="4">
+        <v>7.6340750000000002</v>
+      </c>
+      <c r="D101" s="4">
         <f t="shared" si="45"/>
-        <v>13319.078794075693</v>
-      </c>
-      <c r="D101" s="4">
+        <v>11493.730412656412</v>
+      </c>
+      <c r="E101" s="4">
         <f t="shared" si="46"/>
-        <v>0.34685101026238785</v>
-      </c>
-      <c r="E101" s="6">
-        <f t="shared" ref="E101" si="47">(D101+D102) / 2</f>
-        <v>0.34634434179682838</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="4">
-        <v>6.6071460000000002</v>
-      </c>
+        <v>0.29931589616292742</v>
+      </c>
+      <c r="F101" s="25">
+        <f t="shared" ref="F101" si="47">(E101+E102) / 2</f>
+        <v>0.29692397523332326</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="23"/>
       <c r="C102" s="4">
+        <v>7.7580689999999999</v>
+      </c>
+      <c r="D102" s="4">
         <f t="shared" si="45"/>
-        <v>13280.166655920726</v>
-      </c>
-      <c r="D102" s="4">
+        <v>11310.030885262815</v>
+      </c>
+      <c r="E102" s="4">
         <f t="shared" si="46"/>
-        <v>0.34583767333126891</v>
-      </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
-        <f t="shared" ref="A103" si="48">A101 *2</f>
+        <v>0.29453205430371915</v>
+      </c>
+      <c r="F102" s="26"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="23">
+        <f t="shared" ref="B103" si="48">B101 *2</f>
         <v>20</v>
       </c>
-      <c r="B103" s="4">
-        <v>7.1144720000000001</v>
-      </c>
       <c r="C103" s="4">
+        <v>8.2160689999999992</v>
+      </c>
+      <c r="D103" s="4">
         <f t="shared" si="45"/>
-        <v>12333.171035039564</v>
-      </c>
-      <c r="D103" s="4">
+        <v>10679.55977487531</v>
+      </c>
+      <c r="E103" s="4">
         <f t="shared" si="46"/>
-        <v>0.32117632903748866</v>
-      </c>
-      <c r="E103" s="6">
-        <f t="shared" ref="E103" si="49">(D103+D104) / 2</f>
-        <v>0.31781980863603077</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="4">
-        <v>7.2663489999999999</v>
-      </c>
+        <v>0.27811353580404452</v>
+      </c>
+      <c r="F103" s="25">
+        <f t="shared" ref="F103" si="49">(E103+E104) / 2</f>
+        <v>0.27701521711139659</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="23"/>
       <c r="C104" s="4">
+        <v>8.2814789999999991</v>
+      </c>
+      <c r="D104" s="4">
         <f t="shared" si="45"/>
-        <v>12075.390268207597</v>
-      </c>
-      <c r="D104" s="4">
+        <v>10595.208899279949</v>
+      </c>
+      <c r="E104" s="4">
         <f t="shared" si="46"/>
-        <v>0.31446328823457281</v>
-      </c>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <f t="shared" ref="A105" si="50">A103 *2</f>
+        <v>0.27591689841874867</v>
+      </c>
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="23">
+        <f t="shared" ref="B105" si="50">B103 *2</f>
         <v>40</v>
       </c>
-      <c r="B105" s="4">
-        <v>7.3692690000000001</v>
-      </c>
       <c r="C105" s="4">
+        <v>8.8130889999999997</v>
+      </c>
+      <c r="D105" s="4">
         <f t="shared" si="45"/>
-        <v>11906.744074615814</v>
-      </c>
-      <c r="D105" s="4">
+        <v>9956.1005227565511</v>
+      </c>
+      <c r="E105" s="4">
         <f t="shared" si="46"/>
-        <v>0.31007146027645349</v>
-      </c>
-      <c r="E105" s="6">
-        <f t="shared" ref="E105" si="51">(D105+D106) / 2</f>
-        <v>0.31638361269617465</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="4">
-        <v>7.0809730000000002</v>
-      </c>
+        <v>0.25927345111345185</v>
+      </c>
+      <c r="F105" s="25">
+        <f t="shared" ref="F105" si="51">(E105+E106) / 2</f>
+        <v>0.25909751372533563</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="23"/>
       <c r="C106" s="4">
+        <v>8.8250659999999996</v>
+      </c>
+      <c r="D106" s="4">
         <f t="shared" si="45"/>
-        <v>12391.517380450397</v>
-      </c>
-      <c r="D106" s="4">
+        <v>9942.5885313492272</v>
+      </c>
+      <c r="E106" s="4">
         <f t="shared" si="46"/>
-        <v>0.32269576511589576</v>
-      </c>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
-        <f t="shared" ref="A107" si="52">A105 *2</f>
+        <v>0.25892157633721946</v>
+      </c>
+      <c r="F106" s="26"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="23">
+        <f t="shared" ref="B107" si="52">B105 *2</f>
         <v>80</v>
       </c>
-      <c r="B107" s="4">
-        <v>7.3390579999999996</v>
-      </c>
       <c r="C107" s="4">
-        <f>87744/B107</f>
-        <v>11955.757809789759</v>
+        <v>10.111482000000001</v>
       </c>
       <c r="D107" s="4">
+        <f>87744/C107</f>
+        <v>8677.6597139766454</v>
+      </c>
+      <c r="E107" s="4">
         <f t="shared" si="46"/>
-        <v>0.3113478596299416</v>
-      </c>
-      <c r="E107" s="6">
-        <f>(D107+D108) / 2</f>
-        <v>0.31678393473922584</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="4">
-        <v>7.0914279999999996</v>
-      </c>
+        <v>0.22598072171814182</v>
+      </c>
+      <c r="F107" s="25">
+        <f>(E107+E108) / 2</f>
+        <v>0.2260328299005232</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="23"/>
       <c r="C108" s="4">
-        <f>87744/B108</f>
-        <v>12373.248378182787</v>
+        <v>10.106821</v>
       </c>
       <c r="D108" s="4">
+        <f>87744/C108</f>
+        <v>8681.6616223835372</v>
+      </c>
+      <c r="E108" s="4">
         <f t="shared" si="46"/>
-        <v>0.32222000984851007</v>
-      </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
-        <f t="shared" ref="A109:A113" si="53">A107 *2</f>
+        <v>0.22608493808290461</v>
+      </c>
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="23">
+        <f t="shared" ref="B109:B113" si="53">B107 *2</f>
         <v>160</v>
       </c>
-      <c r="B109" s="4">
-        <v>7.5980350000000003</v>
-      </c>
       <c r="C109" s="4">
-        <f t="shared" ref="C109:C114" si="54">87744/B109</f>
-        <v>11548.248988060728</v>
+        <v>12.687932999999999</v>
       </c>
       <c r="D109" s="4">
+        <f t="shared" ref="D109:D114" si="54">87744/C109</f>
+        <v>6915.5472368903593</v>
+      </c>
+      <c r="E109" s="4">
         <f t="shared" si="46"/>
-        <v>0.30073565073074815</v>
-      </c>
-      <c r="E109" s="6">
-        <f t="shared" ref="E109" si="55">(D109+D110) / 2</f>
-        <v>0.30806494227559822</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="4">
-        <v>7.2449009999999996</v>
-      </c>
+        <v>0.18009237596068645</v>
+      </c>
+      <c r="F109" s="25">
+        <f t="shared" ref="F109" si="55">(E109+E110) / 2</f>
+        <v>0.17900543102088839</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="23"/>
       <c r="C110" s="4">
+        <v>12.84296</v>
+      </c>
+      <c r="D110" s="4">
         <f t="shared" si="54"/>
-        <v>12111.138578705217</v>
-      </c>
-      <c r="D110" s="4">
+        <v>6832.0698655138694</v>
+      </c>
+      <c r="E110" s="4">
         <f t="shared" si="46"/>
-        <v>0.31539423382044834</v>
-      </c>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
+        <v>0.17791848608109034</v>
+      </c>
+      <c r="F110" s="26"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="23">
         <f t="shared" si="53"/>
         <v>320</v>
       </c>
-      <c r="B111" s="4">
-        <v>12.294705</v>
-      </c>
       <c r="C111" s="4">
+        <v>17.182874000000002</v>
+      </c>
+      <c r="D111" s="4">
         <f t="shared" si="54"/>
-        <v>7136.7308121667011</v>
-      </c>
-      <c r="D111" s="4">
+        <v>5106.4798589572383</v>
+      </c>
+      <c r="E111" s="4">
         <f t="shared" si="46"/>
-        <v>0.18585236490017451</v>
-      </c>
-      <c r="E111" s="6">
-        <f t="shared" ref="E111" si="56">(D111+D112) / 2</f>
-        <v>0.18217087319165165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="4">
-        <v>12.801882000000001</v>
-      </c>
+        <v>0.13298124632701142</v>
+      </c>
+      <c r="F111" s="25">
+        <f t="shared" ref="F111" si="56">(E111+E112) / 2</f>
+        <v>0.13309211267011312</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="23"/>
       <c r="C112" s="4">
+        <v>17.154271000000001</v>
+      </c>
+      <c r="D112" s="4">
         <f t="shared" si="54"/>
-        <v>6853.9922489521459</v>
-      </c>
-      <c r="D112" s="4">
+        <v>5114.9943941074498</v>
+      </c>
+      <c r="E112" s="4">
         <f t="shared" si="46"/>
-        <v>0.17848938148312879</v>
-      </c>
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>500</v>
-      </c>
-      <c r="B113" s="4">
-        <v>34.842357999999997</v>
+        <v>0.13320297901321485</v>
+      </c>
+      <c r="F112" s="26"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="23">
+        <f t="shared" si="53"/>
+        <v>640</v>
       </c>
       <c r="C113" s="4">
+        <v>26.595368000000001</v>
+      </c>
+      <c r="D113" s="4">
         <f t="shared" si="54"/>
-        <v>2518.3140589968111</v>
-      </c>
-      <c r="D113" s="4">
+        <v>3299.2211275286732</v>
+      </c>
+      <c r="E113" s="4">
         <f t="shared" si="46"/>
-        <v>6.5581095286375291E-2</v>
-      </c>
-      <c r="E113" s="6">
-        <f t="shared" ref="E113" si="57">(D113+D114) / 2</f>
-        <v>6.0726090943291983E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8">
-        <v>40.897719000000002</v>
-      </c>
-      <c r="C114" s="8">
+        <v>8.5917216862725868E-2</v>
+      </c>
+      <c r="F113" s="25">
+        <f t="shared" ref="F113" si="57">(E113+E114) / 2</f>
+        <v>8.544501166671091E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="24"/>
+      <c r="C114" s="5">
+        <v>26.890955999999999</v>
+      </c>
+      <c r="D114" s="5">
         <f t="shared" si="54"/>
-        <v>2145.4497254480134</v>
-      </c>
-      <c r="D114" s="8">
+        <v>3262.9557684747247</v>
+      </c>
+      <c r="E114" s="5">
         <f t="shared" si="46"/>
-        <v>5.5871086600208682E-2</v>
-      </c>
-      <c r="E114" s="10"/>
+        <v>8.4972806470695952E-2</v>
+      </c>
+      <c r="F114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D70:D71 D73 D75 D77 D79 D81 D83" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
@@ -6423,84 +7493,44 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!A9:A9</xm:f>
-              <xm:sqref>E9</xm:sqref>
+              <xm:f>Sheet1!B9:B9</xm:f>
+              <xm:sqref>F9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A10:A10</xm:f>
-              <xm:sqref>E10</xm:sqref>
+              <xm:f>Sheet1!B11:B11</xm:f>
+              <xm:sqref>F11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A11:A11</xm:f>
-              <xm:sqref>E11</xm:sqref>
+              <xm:f>Sheet1!B13:B13</xm:f>
+              <xm:sqref>F13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A12:A12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>Sheet1!B15:B15</xm:f>
+              <xm:sqref>F15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A13:A13</xm:f>
-              <xm:sqref>E13</xm:sqref>
+              <xm:f>Sheet1!B17:B17</xm:f>
+              <xm:sqref>F17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A14:A14</xm:f>
-              <xm:sqref>E14</xm:sqref>
+              <xm:f>Sheet1!B19:B19</xm:f>
+              <xm:sqref>F19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A15:A15</xm:f>
-              <xm:sqref>E15</xm:sqref>
+              <xm:f>Sheet1!B21:B21</xm:f>
+              <xm:sqref>F21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A16:A16</xm:f>
-              <xm:sqref>E16</xm:sqref>
+              <xm:f>Sheet1!B23:B23</xm:f>
+              <xm:sqref>F23</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A17:A17</xm:f>
-              <xm:sqref>E17</xm:sqref>
+              <xm:f>Sheet1!B25:B25</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!A18:A18</xm:f>
-              <xm:sqref>E18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A19:A19</xm:f>
-              <xm:sqref>E19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A20:A20</xm:f>
-              <xm:sqref>E20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A21:A21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A22:A22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A23:A23</xm:f>
-              <xm:sqref>E23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A24:A24</xm:f>
-              <xm:sqref>E24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A25:A25</xm:f>
-              <xm:sqref>E25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A26:A26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A27:A27</xm:f>
-              <xm:sqref>E27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!A28:A28</xm:f>
-              <xm:sqref>E28</xm:sqref>
+              <xm:f>Sheet1!B27:B27</xm:f>
+              <xm:sqref>F27</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Sheet1!A29:A29</xm:f>
